--- a/data/9.lookups/outcomes.xlsx
+++ b/data/9.lookups/outcomes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\data\9.lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B723FA-4512-4487-B161-4D3E0EAD323C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D12812-4BCA-4CAA-A4E0-D0453BE03763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13068" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{6143445E-E78D-4F4E-88FF-44E482CCEAB7}"/>
+    <workbookView xWindow="26520" yWindow="4380" windowWidth="20205" windowHeight="14985" xr2:uid="{6143445E-E78D-4F4E-88FF-44E482CCEAB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>outcome_nlo</t>
   </si>
@@ -44,30 +44,6 @@
     <t>Curricula in new professions</t>
   </si>
   <si>
-    <t>Develop regulatory frameworks/new protocols/ technical guidelines</t>
-  </si>
-  <si>
-    <t>Developed regulatory frameworks/ New protocols/ Technical guidelines</t>
-  </si>
-  <si>
-    <t>Introduce new technologies/ Provide new services</t>
-  </si>
-  <si>
-    <t>Introduced new technologies/ Provide new services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Produce new data /increase understanding </t>
-  </si>
-  <si>
-    <t>Produced new data / Increased understanding</t>
-  </si>
-  <si>
-    <t>Upgrade institutions / Laboratories/  educational centers</t>
-  </si>
-  <si>
-    <t>Upgraded institutions / Laboratories/ Educational centers</t>
-  </si>
-  <si>
     <t>Produce data to inform policies</t>
   </si>
   <si>
@@ -81,6 +57,39 @@
   </si>
   <si>
     <t>Develop regulatory frameworks</t>
+  </si>
+  <si>
+    <t>Adoption of plans/policies/programmes or technical standards by national/regional entities</t>
+  </si>
+  <si>
+    <t>Adoption of regulatory frameworks</t>
+  </si>
+  <si>
+    <t>Creation of new institution/laboratory/education centre</t>
+  </si>
+  <si>
+    <t>Creation of new Institution</t>
+  </si>
+  <si>
+    <t>Increased use of a new technology/tool or technique in a specific sector</t>
+  </si>
+  <si>
+    <t>Increased used of new technologies</t>
+  </si>
+  <si>
+    <t>New profession recognized/more professionals in the workforce</t>
+  </si>
+  <si>
+    <t>New profession recognized</t>
+  </si>
+  <si>
+    <t>Use of data to inform policies/regulatory bodies /global data networks</t>
+  </si>
+  <si>
+    <t>Use of data to inform policies</t>
+  </si>
+  <si>
+    <t>int_outcome</t>
   </si>
 </sst>
 </file>
@@ -452,96 +461,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89422950-7729-40F9-A45C-1D78060FD90A}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G7:G8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
